--- a/medicine/Enfance/Lorris_Murail/Lorris_Murail.xlsx
+++ b/medicine/Enfance/Lorris_Murail/Lorris_Murail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorris Murail, né le 9 juin 1951 au Havre et mort le 3 août 2021[1] à Chamadelle des suites de la maladie de Charcot, est un écrivain français. Il écrit pour la jeunesse et pour les adultes (science-fiction). Il est aussi critique littéraire, traducteur (anglais) et journaliste spécialisé en gastronomie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorris Murail, né le 9 juin 1951 au Havre et mort le 3 août 2021 à Chamadelle des suites de la maladie de Charcot, est un écrivain français. Il écrit pour la jeunesse et pour les adultes (science-fiction). Il est aussi critique littéraire, traducteur (anglais) et journaliste spécialisé en gastronomie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorris Murail est diplômé de l'Institut d'études politiques de Paris. Il est père de quatre filles. Il écrit depuis l'âge de seize ans.
 Lorris Murail, fils du poète Gérard Murail, est le frère de Tristan Murail, compositeur, de Marie-Aude Murail et d'Elvire Murail, écrivaines, avec lesquelles il écrit parfois à quatre (L'expérienceur, 2003, Angie !, 2021) ou à six mains (Golem, 2002).
-En 2021, avec sa sœur Marie-Aude Murail, il signe deux romans policiers, Angie ![2] et Souviens-toi de septembre ![3]. En 2022, paraît le troisième volet de cette trilogie, À l'hôtel du Pourquoi-Pas ? commencé avec sa sœur et achevé par elle.
+En 2021, avec sa sœur Marie-Aude Murail, il signe deux romans policiers, Angie ! et Souviens-toi de septembre !. En 2022, paraît le troisième volet de cette trilogie, À l'hôtel du Pourquoi-Pas ? commencé avec sa sœur et achevé par elle.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Le Cirque Manzano, 1991
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Cirque Manzano, 1991
 Le Professeur de distractions, 1993
 L'Ancêtre disparue, 1994
 La Dernière Valse, 1995
@@ -571,15 +590,53 @@
 L'inconnu de l'île Mathis, 2011
 Shanoé, 2014
 Lundi, couscous, 2014
-Douze ans, sept mois et onze jours, 2015[4]
+Douze ans, sept mois et onze jours, 2015
 Rien ni personne, Sarbacane, 2017
 Chaque chose en son temps, Gulfstream, 2018
 L'horloge de l'Apocalypse, Pocket Junior, 2018
 Vampyre, Pocket Junior, 2019
 Soleil trouble, Pocket Junior, 2020
-D'amour, d'Historiens et d'éléphants, Blogger de Loire, 2023 (intégrale des nouvelles)
-Série pour la jeunesse
-Dan Martin enquête
+D'amour, d'Historiens et d'éléphants, Blogger de Loire, 2023 (intégrale des nouvelles)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dan Martin enquête
 Dan Martin, détective, 1994
 Coup de blues pour Dan Martin, 1996
 Dan Martin fait son cinéma, 1998
@@ -588,9 +645,47 @@
 Les Cornes d'ivoire
 Afirik - Petite sœur blanche, avril 2011
 Septentrion - La ballade du continent perdu, septembre 2012
-Celle qui lève le vent, juin 2014
-Œuvres en collaboration
-En collaboration avec ses sœurs Marie-Aude Murail et Elvire Murail:
+Celle qui lève le vent, juin 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Œuvres en collaboration</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En collaboration avec ses sœurs Marie-Aude Murail et Elvire Murail:
 Golem (2002)
 Magic Berber
 Joke
@@ -601,19 +696,125 @@
 L'expérienceur, L'école des loisirs, 2003
 Angie !, L'école des loisirs, 2021
 Souviens-toi de septembre !, L'école des loisirs, 2021
-À l'hôtel du Pourquoi-Pas ?, L'école des loisirs, 2022
-Bande dessinée
-Le Journal de Carmilla
+À l'hôtel du Pourquoi-Pas ?, L'école des loisirs, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Journal de Carmilla
 Reproduction interdite, 2006 (ISBN 2-74930-269-2) Scénario de Lorris Murail, dessins de Laurel
 Une espèce en voie de disparition, 2007 (ISBN 2-74930-380-X) Scénario de Lorris Murail, dessins de Laurel
 Compensé carbone, 2008 Scénario de Lorris Murail, dessins de Laurel
 Delphinothérapie, 2009 Scénario de Lorris Murail, dessins de Laurel
 Les enquêtes surnaturelles de Mina
-Descente aux Enfers !, 2011 (ISBN 978-2749305721) Scénario de Lorris Murail, dessins de Laurel
-Albums
-La Machine à Tout,, 2008 Scénario de Lorris Murail, dessins de Caterina Zandonella
-Pour les adultes
-Par ordre chronologique de publication
+Descente aux Enfers !, 2011 (ISBN 978-2749305721) Scénario de Lorris Murail, dessins de Laurel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Machine à Tout 2008 Scénario de Lorris Murail, dessins de Caterina Zandonella</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorris_Murail</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pour les adultes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Par ordre chronologique de publication
 Omnyle, Jean-Claude Lattès, 1975
 La secte, Jean-Claude Lattès, 1977
 L'Hippocampe, Robert Laffont, coll. « Ailleurs et demain », 1981
